--- a/resources/ProStudents (2).xlsx
+++ b/resources/ProStudents (2).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="437">
   <si>
     <t>id</t>
   </si>
@@ -53,9 +53,6 @@
     <t>20192ITIE015</t>
   </si>
   <si>
-    <t>Sandra Duran Islas</t>
-  </si>
-  <si>
     <t>Área Entornos Virtuales y Negocios Digitales</t>
   </si>
   <si>
@@ -71,885 +68,447 @@
     <t>20192ITIE019</t>
   </si>
   <si>
-    <t>Mildred Fragoso Briones</t>
-  </si>
-  <si>
     <t>20192ITIE018</t>
   </si>
   <si>
-    <t>Esmeralda Gonzalez Flores</t>
-  </si>
-  <si>
     <t>20192ITIE010</t>
   </si>
   <si>
-    <t>Luz Del Carmen Guerrero Roque</t>
-  </si>
-  <si>
     <t>20192ITIE004</t>
   </si>
   <si>
-    <t>Gabriela Hernandez Avendaño</t>
-  </si>
-  <si>
     <t>20192ITIE005</t>
   </si>
   <si>
-    <t>Fatima Guadalupe Hernandez Gonzalez</t>
-  </si>
-  <si>
     <t>20192ITIE020</t>
   </si>
   <si>
-    <t>Jacqueline Lucero Hernandez Montiel</t>
-  </si>
-  <si>
     <t>20192ITIE002</t>
   </si>
   <si>
-    <t>Eduardo Jimenez Basilio</t>
-  </si>
-  <si>
     <t>20192ITIE023</t>
   </si>
   <si>
-    <t>Angel Axel Juarez Muñoz</t>
-  </si>
-  <si>
     <t>20192ITIE012</t>
   </si>
   <si>
-    <t>Chanel Mendez Baez</t>
-  </si>
-  <si>
     <t>20192ITIE014</t>
   </si>
   <si>
-    <t>Alma Nelly Nava Martinez</t>
-  </si>
-  <si>
     <t>20192ITIE013</t>
   </si>
   <si>
-    <t>Jessica Paola Neria Cabrera</t>
-  </si>
-  <si>
     <t>20192ITIE009</t>
   </si>
   <si>
-    <t>Wendy Jocelin Perez Luna</t>
-  </si>
-  <si>
     <t>20192ITIE006</t>
   </si>
   <si>
-    <t>Luz Karla Reyes Cruz</t>
-  </si>
-  <si>
     <t>20192ITIE021</t>
   </si>
   <si>
-    <t>Ernesto Alonso Romero Muñoz</t>
-  </si>
-  <si>
     <t>20192ITIE007</t>
   </si>
   <si>
-    <t>Maria Del Carmen Sanchez Vazquez</t>
-  </si>
-  <si>
     <t>20192ITIE001</t>
   </si>
   <si>
-    <t>Ana Karen Tlahuitzo Luna</t>
-  </si>
-  <si>
     <t>20192ITIE011</t>
   </si>
   <si>
-    <t>Miguel Alejandro Vazquez Martinez</t>
-  </si>
-  <si>
     <t>20182ITI026</t>
   </si>
   <si>
-    <t>Angelica Garcia Saldaña</t>
-  </si>
-  <si>
     <t>20182ITI017</t>
   </si>
   <si>
-    <t>Alejandro Lorenzana Huerta</t>
-  </si>
-  <si>
     <t>20182ITI046</t>
   </si>
   <si>
-    <t>Marycruz Perez Cuatianquiz</t>
-  </si>
-  <si>
     <t>20182ITI033</t>
   </si>
   <si>
-    <t>Johana Perez Sanchez</t>
-  </si>
-  <si>
     <t>20182ITI057</t>
   </si>
   <si>
-    <t>Sara Reyes Flores</t>
-  </si>
-  <si>
     <t>20182ITI042</t>
   </si>
   <si>
-    <t>Bryan Salgado Velazquez</t>
-  </si>
-  <si>
     <t>20182ITI031</t>
   </si>
   <si>
-    <t>Maria Viridiana Sanchez Martinez</t>
-  </si>
-  <si>
     <t>20182ITI049</t>
   </si>
   <si>
-    <t>Janelly Nahomi Sanluis Lopez</t>
-  </si>
-  <si>
     <t>20182ITI036</t>
   </si>
   <si>
-    <t>Juan Antonio Teacalco Perez</t>
-  </si>
-  <si>
     <t>20182ITI044</t>
   </si>
   <si>
-    <t>Marco Antonio Vazquez Bautista</t>
-  </si>
-  <si>
     <t>20182ITI039</t>
   </si>
   <si>
-    <t>Sandra Quitze Vazquez Padron</t>
-  </si>
-  <si>
     <t>20192ITIR008</t>
   </si>
   <si>
-    <t>Maricruz De Gabriel Lopez</t>
-  </si>
-  <si>
     <t>Área Infraestructura de Redes Digitales</t>
   </si>
   <si>
     <t>20192ITIR016</t>
   </si>
   <si>
-    <t>Lizeth Flores Sanluis</t>
-  </si>
-  <si>
     <t>20192ITIR013</t>
   </si>
   <si>
-    <t>Paco Uriel Flores Vazquez</t>
-  </si>
-  <si>
     <t>20192ITIR012</t>
   </si>
   <si>
-    <t>Alejandro Gomez Flores</t>
-  </si>
-  <si>
     <t>20192ITIR011</t>
   </si>
   <si>
-    <t>Elesvan Arturo Lopez Lima</t>
-  </si>
-  <si>
     <t>20192ITIR002</t>
   </si>
   <si>
-    <t>Julio Cesar Martinez Caute</t>
-  </si>
-  <si>
     <t>20182ITI082</t>
   </si>
   <si>
-    <t>Miguel Angel Mejia Perez</t>
-  </si>
-  <si>
     <t>20192ITIR015</t>
   </si>
   <si>
-    <t>Xochil Sheila Navarro Hernandez</t>
-  </si>
-  <si>
     <t>20192ITIR014</t>
   </si>
   <si>
-    <t>Brenda Lizet Neria Rodriguez</t>
-  </si>
-  <si>
     <t>20192ITIR001</t>
   </si>
   <si>
-    <t>David Saldaña Ortiz</t>
-  </si>
-  <si>
     <t>20192ITIR007</t>
   </si>
   <si>
-    <t>Victor Manuel Tamayo Briones</t>
-  </si>
-  <si>
     <t>20192ITIR005</t>
   </si>
   <si>
-    <t>Maria Estefany Torres Lara</t>
-  </si>
-  <si>
     <t>20192ITIR010</t>
   </si>
   <si>
-    <t>Marco Ivan Vasquez Lopez</t>
-  </si>
-  <si>
     <t>20182ITI072</t>
   </si>
   <si>
-    <t>Alison Yamileth Aguilar Pineda</t>
-  </si>
-  <si>
     <t>20182ITI079</t>
   </si>
   <si>
-    <t>Siloe Diego Andriano Avelar</t>
-  </si>
-  <si>
     <t>20182ITI007</t>
   </si>
   <si>
-    <t>Jhonathan Jovanny Contreras Tzintzun</t>
-  </si>
-  <si>
     <t>20182ITI021</t>
   </si>
   <si>
-    <t>Miguel Angel Fernandez Montiel</t>
-  </si>
-  <si>
     <t>20182ITI043</t>
   </si>
   <si>
-    <t>Jorge Garcia Ortiz</t>
-  </si>
-  <si>
     <t>20182ITI064</t>
   </si>
   <si>
-    <t>Romel Gonzalez Herrera</t>
-  </si>
-  <si>
     <t>20182ITI063</t>
   </si>
   <si>
-    <t>Ronaldo Gonzalez Herrera</t>
-  </si>
-  <si>
     <t>20182ITI062</t>
   </si>
   <si>
-    <t>Luis Angel Guzman Romano</t>
-  </si>
-  <si>
     <t>20182ITI002</t>
   </si>
   <si>
-    <t>Eduardo Lopez Corona</t>
-  </si>
-  <si>
     <t>20182ITI090</t>
   </si>
   <si>
-    <t>Alejandra Guadalupe Montiel Ramos</t>
-  </si>
-  <si>
     <t>20182ITI087</t>
   </si>
   <si>
-    <t>Hector Omaña De Gante</t>
-  </si>
-  <si>
     <t>20182ITI050</t>
   </si>
   <si>
-    <t>Horacio Perez Rodriguez</t>
-  </si>
-  <si>
     <t>20182ITI075</t>
   </si>
   <si>
-    <t>Ernesto Daniel Ponce Hernandez</t>
-  </si>
-  <si>
     <t>20182ITI047</t>
   </si>
   <si>
-    <t>Marisol Ramos Ramos</t>
-  </si>
-  <si>
     <t>20182ITI054</t>
   </si>
   <si>
-    <t>Ian Santiago Rivas Neria</t>
-  </si>
-  <si>
     <t>20182ITI093</t>
   </si>
   <si>
-    <t>Paul Vazquez Cervantes</t>
-  </si>
-  <si>
     <t>20182ITI074</t>
   </si>
   <si>
-    <t>Luis Alfonso Vazquez Leon</t>
-  </si>
-  <si>
     <t>20192ITID043</t>
   </si>
   <si>
-    <t>Jose Ricardo Aquino Parraguirre</t>
-  </si>
-  <si>
     <t>Área Desarrollo de Software Multiplataforma</t>
   </si>
   <si>
     <t>20192ITID044</t>
   </si>
   <si>
-    <t>Wendy Selene Cocoletzi Flores</t>
-  </si>
-  <si>
     <t>20192ITID011</t>
   </si>
   <si>
-    <t>Felipe De Jesus Colin Vasquez</t>
-  </si>
-  <si>
     <t>20192ITID019</t>
   </si>
   <si>
-    <t>Jose Guadalupe Cortes Cruz</t>
-  </si>
-  <si>
     <t>20192ITID021</t>
   </si>
   <si>
-    <t>Daniel Sammuel Cuayahuitl Perez</t>
-  </si>
-  <si>
     <t>20192ITID015</t>
   </si>
   <si>
-    <t>Carlos Jair Fernandez Guarneros</t>
-  </si>
-  <si>
     <t>20192ITID006</t>
   </si>
   <si>
-    <t>Nelly Naibet Fragoso Muñoz</t>
-  </si>
-  <si>
     <t>20192ITID045</t>
   </si>
   <si>
-    <t>Yessyca Garcia Campos</t>
-  </si>
-  <si>
     <t>20192ITID017</t>
   </si>
   <si>
-    <t>Channel Gonzalez Jimenez</t>
-  </si>
-  <si>
     <t>20192ITID012</t>
   </si>
   <si>
-    <t>Juan Daniel Gonzalez Vasquez</t>
-  </si>
-  <si>
     <t>20192ITID003</t>
   </si>
   <si>
-    <t>Rodrigo Michael Guirao Onofre</t>
-  </si>
-  <si>
     <t>20192ITID048</t>
   </si>
   <si>
-    <t>Ivan Hernandez Carballo</t>
-  </si>
-  <si>
     <t>20192ITID013</t>
   </si>
   <si>
-    <t>Eduardo Hernandez Carrasco</t>
-  </si>
-  <si>
     <t>20192ITID018</t>
   </si>
   <si>
-    <t>Dulce Concepción Juarez Soledad</t>
-  </si>
-  <si>
     <t>20192ITID001</t>
   </si>
   <si>
-    <t>Luis Alejandro Lopez Olivares</t>
-  </si>
-  <si>
     <t>20192ITID004</t>
   </si>
   <si>
-    <t>Jose Daniel Morales Fernandez</t>
-  </si>
-  <si>
     <t>20192ITID014</t>
   </si>
   <si>
-    <t>Juan Carlos Palestina Huerta</t>
-  </si>
-  <si>
     <t>20192ITID041</t>
   </si>
   <si>
-    <t>Jesus Uriel Barragan Lopez</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>20192ITID049</t>
   </si>
   <si>
-    <t>Jose Fernando Conde Paredes</t>
-  </si>
-  <si>
     <t>20192ITID020</t>
   </si>
   <si>
-    <t>Jose Adrian Gonzalez Sierra</t>
-  </si>
-  <si>
     <t>20192ITID047</t>
   </si>
   <si>
-    <t>Evelyn Juarez Garcia</t>
-  </si>
-  <si>
     <t>20192ITID027</t>
   </si>
   <si>
-    <t>Jonathan Perez Ordoñez</t>
-  </si>
-  <si>
     <t>20192ITID025</t>
   </si>
   <si>
-    <t>Emanuel Rangel Luna</t>
-  </si>
-  <si>
     <t>20192ITID046</t>
   </si>
   <si>
-    <t>Martha Clarissa Salamanca Rojas</t>
-  </si>
-  <si>
     <t>20192ITID024</t>
   </si>
   <si>
-    <t>Cristian Sanchez Flores</t>
-  </si>
-  <si>
     <t>20192ITID036</t>
   </si>
   <si>
-    <t>Osvaldo Sanchez Perez</t>
-  </si>
-  <si>
     <t>20192ITID050</t>
   </si>
   <si>
-    <t>Marina Guadalupe Sanchez Rodriguez</t>
-  </si>
-  <si>
     <t>20192ITID030</t>
   </si>
   <si>
-    <t>Leonardo Santamaria Sanchez</t>
-  </si>
-  <si>
     <t>20192ITID028</t>
   </si>
   <si>
-    <t>Luis Angel Santos Islas</t>
-  </si>
-  <si>
     <t>20192ITID031</t>
   </si>
   <si>
-    <t>Axel Jair Segundo Leon</t>
-  </si>
-  <si>
     <t>20192ITID034</t>
   </si>
   <si>
-    <t>Sherlin Toriz Pérez</t>
-  </si>
-  <si>
     <t>20192ITID029</t>
   </si>
   <si>
-    <t>Marco Antonio Trinidad Rodriguez</t>
-  </si>
-  <si>
     <t>20192ITID026</t>
   </si>
   <si>
-    <t>Diego Edgar Ugarte Perez</t>
-  </si>
-  <si>
     <t>20192ITID042</t>
   </si>
   <si>
-    <t>Jose Luis Vazquez Flores</t>
-  </si>
-  <si>
     <t>20192ITID032</t>
   </si>
   <si>
-    <t>Luis Miguel Vazquez Juarez</t>
-  </si>
-  <si>
     <t>20192ITID040</t>
   </si>
   <si>
-    <t>Vannesa Vega Huerta</t>
-  </si>
-  <si>
     <t>20182ITI067</t>
   </si>
   <si>
-    <t>Luis Daniel Altamirano Hernandez</t>
-  </si>
-  <si>
     <t>20182ITI078</t>
   </si>
   <si>
-    <t>Luis Fernando Caute Hernandez</t>
-  </si>
-  <si>
     <t>20172ITI053</t>
   </si>
   <si>
-    <t>Jose Marcos Conde Vazquez</t>
-  </si>
-  <si>
     <t>20182ITI027</t>
   </si>
   <si>
-    <t>Erika Espinoza Lopez</t>
-  </si>
-  <si>
     <t>20182ITI011</t>
   </si>
   <si>
-    <t>Jacobo Rodrigo Hernandez Mendieta</t>
-  </si>
-  <si>
     <t>20182ITI003</t>
   </si>
   <si>
-    <t>Josthin Hernandez Tehozol</t>
-  </si>
-  <si>
     <t>20182ITI098</t>
   </si>
   <si>
-    <t>Cesar Jafet Lima Ipatzi</t>
-  </si>
-  <si>
     <t>20182ITI010</t>
   </si>
   <si>
-    <t>Carlos Jesus Lopez Chacon</t>
-  </si>
-  <si>
     <t>20172ITI060</t>
   </si>
   <si>
-    <t>Diego Luna Huerta</t>
-  </si>
-  <si>
     <t>20182ITI060</t>
   </si>
   <si>
-    <t>Omar Yasser Martinez Sanchez</t>
-  </si>
-  <si>
     <t>20182ITI030</t>
   </si>
   <si>
-    <t>Jose Fernando Mata Mora</t>
-  </si>
-  <si>
     <t>20182ITI048</t>
   </si>
   <si>
-    <t>Adriana Montes Magdaleno</t>
-  </si>
-  <si>
     <t>20182ITI055</t>
   </si>
   <si>
-    <t>Emanuel Morales Torres</t>
-  </si>
-  <si>
     <t>20182ITI071</t>
   </si>
   <si>
-    <t>Jose Ramon Navarro Gonzalez</t>
-  </si>
-  <si>
     <t>20182ITI029</t>
   </si>
   <si>
-    <t>Miguel Angel Ortiz Hernandez</t>
-  </si>
-  <si>
     <t>20182ITI053</t>
   </si>
   <si>
-    <t>Gloria Michelle Roman Perez</t>
-  </si>
-  <si>
     <t>20182ITI085</t>
   </si>
   <si>
-    <t>Edwing Ruiz Sanchez</t>
-  </si>
-  <si>
     <t>20182ITI035</t>
   </si>
   <si>
-    <t>Jose Raul Tamayo Briones</t>
-  </si>
-  <si>
     <t>20162ITI006</t>
   </si>
   <si>
-    <t>Karen Barrera Barrera</t>
-  </si>
-  <si>
     <t>Ingeniería en Tecnologías de la Información</t>
   </si>
   <si>
     <t>20172ITI073</t>
   </si>
   <si>
-    <t>Josefina Benites Santiago</t>
-  </si>
-  <si>
     <t>20172ITI011</t>
   </si>
   <si>
-    <t>Victor Manuel Briones Sanchez</t>
-  </si>
-  <si>
     <t>20192ITID052</t>
   </si>
   <si>
-    <t>Abigail Castañeda Luna</t>
-  </si>
-  <si>
     <t>20162ITI029</t>
   </si>
   <si>
-    <t>Luis Enrique Cervantes Caute</t>
-  </si>
-  <si>
     <t>20172ITI030</t>
   </si>
   <si>
-    <t>Sebastian Fonseca Flores</t>
-  </si>
-  <si>
     <t>2015ITI049</t>
   </si>
   <si>
-    <t>Yesenia Hernandez Marquez</t>
-  </si>
-  <si>
     <t>20172ITI039</t>
   </si>
   <si>
-    <t>Jair Ramon Huerta Salinas</t>
-  </si>
-  <si>
     <t>20172ITI051</t>
   </si>
   <si>
-    <t>Fabiola Laureano Macias</t>
-  </si>
-  <si>
     <t>20172ITI024</t>
   </si>
   <si>
-    <t>Evelyn Luciano Jimenez</t>
-  </si>
-  <si>
     <t>20172ITI025</t>
   </si>
   <si>
-    <t>Pedro Hernan Magdaleno Saldaña</t>
-  </si>
-  <si>
     <t>20172ITI003</t>
   </si>
   <si>
-    <t>Geraldi Ruby Montes Rosas</t>
-  </si>
-  <si>
     <t>20162ITI009</t>
   </si>
   <si>
-    <t>Julio Cesar Morales Xolocotzi</t>
-  </si>
-  <si>
     <t>20172ITI062</t>
   </si>
   <si>
-    <t>Lizbeth Moreno Hernandez</t>
-  </si>
-  <si>
     <t>20172ITI050</t>
   </si>
   <si>
-    <t>Diana Karen Parra Sosa</t>
-  </si>
-  <si>
     <t>20172ITI045</t>
   </si>
   <si>
-    <t>Gerardo Perez Melendez</t>
-  </si>
-  <si>
     <t>20172ITI070</t>
   </si>
   <si>
-    <t>Luis Fernando Vazquez Rivera</t>
-  </si>
-  <si>
     <t>20172ITI009</t>
   </si>
   <si>
-    <t>Mario Alberto Alonso Alvarado</t>
-  </si>
-  <si>
     <t>20172ITI016</t>
   </si>
   <si>
-    <t>Cristina Del Carmen Castillo Vidal</t>
-  </si>
-  <si>
     <t>20162ITI060</t>
   </si>
   <si>
-    <t>Alba Isela Cuatecontzi Armas</t>
-  </si>
-  <si>
     <t>20172ITI057</t>
   </si>
   <si>
-    <t>Carina Gonzalez Campos</t>
-  </si>
-  <si>
     <t>20172ITI035</t>
   </si>
   <si>
-    <t>Sandra Gutierrez Rodriguez</t>
-  </si>
-  <si>
     <t>20172ITI012</t>
   </si>
   <si>
-    <t>Lesly Lucero Jimenez Fernandez</t>
-  </si>
-  <si>
     <t>20172ITI001</t>
   </si>
   <si>
-    <t>Luis Angel Larios Castillo</t>
-  </si>
-  <si>
     <t>20172ITI037</t>
   </si>
   <si>
-    <t>Guadalupe Marquez Morales</t>
-  </si>
-  <si>
     <t>20172ITI005</t>
   </si>
   <si>
-    <t>Daniela Muñoz Hernandez</t>
-  </si>
-  <si>
     <t>20172ITI021</t>
   </si>
   <si>
-    <t>Jessica Muñoz Hernandez</t>
-  </si>
-  <si>
     <t>20172ITI020</t>
   </si>
   <si>
-    <t>Aldahir Ortega Rojas</t>
-  </si>
-  <si>
     <t>20172ITI054</t>
   </si>
   <si>
-    <t>Wiliams Perez Luzan</t>
-  </si>
-  <si>
     <t>20162ITI035</t>
   </si>
   <si>
-    <t>Luz Del Carmen Rosales Rocha</t>
-  </si>
-  <si>
     <t>20172ITI041</t>
   </si>
   <si>
-    <t>Julisa Montserrat Valadez Ramirez</t>
-  </si>
-  <si>
     <t>20172ITI029</t>
   </si>
   <si>
-    <t>Miguel Angel Zamora Carmona</t>
-  </si>
-  <si>
-    <t>EJEMPLO TRES</t>
-  </si>
-  <si>
-    <t>EJEMPLO 3</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
@@ -962,448 +521,820 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>prueba</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
-    <t>prueba01</t>
-  </si>
-  <si>
-    <t>prueba02</t>
-  </si>
-  <si>
-    <t>prueba03</t>
-  </si>
-  <si>
-    <t>prueba04</t>
-  </si>
-  <si>
-    <t>prueba05</t>
-  </si>
-  <si>
-    <t>prueba06</t>
-  </si>
-  <si>
-    <t>prueba07</t>
-  </si>
-  <si>
-    <t>prueba08</t>
-  </si>
-  <si>
-    <t>prueba09</t>
-  </si>
-  <si>
-    <t>prueba10</t>
-  </si>
-  <si>
-    <t>prueba11</t>
-  </si>
-  <si>
-    <t>prueba12</t>
-  </si>
-  <si>
-    <t>prueba13</t>
-  </si>
-  <si>
-    <t>prueba14</t>
-  </si>
-  <si>
-    <t>prueba15</t>
-  </si>
-  <si>
-    <t>prueba16</t>
-  </si>
-  <si>
-    <t>prueba17</t>
-  </si>
-  <si>
-    <t>prueba18</t>
-  </si>
-  <si>
-    <t>prueba19</t>
-  </si>
-  <si>
-    <t>prueba20</t>
-  </si>
-  <si>
-    <t>prueba21</t>
-  </si>
-  <si>
-    <t>prueba22</t>
-  </si>
-  <si>
-    <t>prueba23</t>
-  </si>
-  <si>
-    <t>prueba24</t>
-  </si>
-  <si>
-    <t>prueba25</t>
-  </si>
-  <si>
-    <t>prueba26</t>
-  </si>
-  <si>
-    <t>prueba27</t>
-  </si>
-  <si>
-    <t>prueba28</t>
-  </si>
-  <si>
-    <t>prueba29</t>
-  </si>
-  <si>
-    <t>prueba30</t>
-  </si>
-  <si>
-    <t>prueba31</t>
-  </si>
-  <si>
-    <t>prueba32</t>
-  </si>
-  <si>
-    <t>prueba33</t>
-  </si>
-  <si>
-    <t>prueba34</t>
-  </si>
-  <si>
-    <t>prueba35</t>
-  </si>
-  <si>
-    <t>prueba36</t>
-  </si>
-  <si>
-    <t>prueba37</t>
-  </si>
-  <si>
-    <t>prueba38</t>
-  </si>
-  <si>
-    <t>prueba39</t>
-  </si>
-  <si>
-    <t>prueba40</t>
-  </si>
-  <si>
-    <t>prueba41</t>
-  </si>
-  <si>
-    <t>prueba42</t>
-  </si>
-  <si>
-    <t>prueba43</t>
-  </si>
-  <si>
-    <t>prueba44</t>
-  </si>
-  <si>
-    <t>prueba45</t>
-  </si>
-  <si>
-    <t>prueba46</t>
-  </si>
-  <si>
-    <t>prueba47</t>
-  </si>
-  <si>
-    <t>prueba48</t>
-  </si>
-  <si>
-    <t>prueba49</t>
-  </si>
-  <si>
-    <t>prueba50</t>
-  </si>
-  <si>
-    <t>prueba51</t>
-  </si>
-  <si>
-    <t>prueba52</t>
-  </si>
-  <si>
-    <t>prueba53</t>
-  </si>
-  <si>
-    <t>prueba54</t>
-  </si>
-  <si>
-    <t>prueba55</t>
-  </si>
-  <si>
-    <t>prueba56</t>
-  </si>
-  <si>
-    <t>prueba57</t>
-  </si>
-  <si>
-    <t>prueba58</t>
-  </si>
-  <si>
-    <t>prueba59</t>
-  </si>
-  <si>
-    <t>prueba60</t>
-  </si>
-  <si>
-    <t>prueba61</t>
-  </si>
-  <si>
-    <t>prueba62</t>
-  </si>
-  <si>
-    <t>prueba63</t>
-  </si>
-  <si>
-    <t>prueba64</t>
-  </si>
-  <si>
-    <t>prueba65</t>
-  </si>
-  <si>
-    <t>prueba66</t>
-  </si>
-  <si>
-    <t>prueba67</t>
-  </si>
-  <si>
-    <t>prueba68</t>
-  </si>
-  <si>
-    <t>prueba69</t>
-  </si>
-  <si>
-    <t>prueba70</t>
-  </si>
-  <si>
-    <t>prueba71</t>
-  </si>
-  <si>
-    <t>prueba72</t>
-  </si>
-  <si>
-    <t>prueba73</t>
-  </si>
-  <si>
-    <t>prueba74</t>
-  </si>
-  <si>
-    <t>prueba75</t>
-  </si>
-  <si>
-    <t>prueba76</t>
-  </si>
-  <si>
-    <t>prueba77</t>
-  </si>
-  <si>
-    <t>prueba78</t>
-  </si>
-  <si>
-    <t>prueba79</t>
-  </si>
-  <si>
-    <t>prueba80</t>
-  </si>
-  <si>
-    <t>prueba81</t>
-  </si>
-  <si>
-    <t>prueba82</t>
-  </si>
-  <si>
-    <t>prueba83</t>
-  </si>
-  <si>
-    <t>prueba84</t>
-  </si>
-  <si>
-    <t>prueba85</t>
-  </si>
-  <si>
-    <t>prueba86</t>
-  </si>
-  <si>
-    <t>prueba87</t>
-  </si>
-  <si>
-    <t>prueba88</t>
-  </si>
-  <si>
-    <t>prueba89</t>
-  </si>
-  <si>
-    <t>prueba90</t>
-  </si>
-  <si>
-    <t>prueba91</t>
-  </si>
-  <si>
-    <t>prueba92</t>
-  </si>
-  <si>
-    <t>prueba93</t>
-  </si>
-  <si>
-    <t>prueba94</t>
-  </si>
-  <si>
-    <t>prueba95</t>
-  </si>
-  <si>
-    <t>prueba96</t>
-  </si>
-  <si>
-    <t>prueba97</t>
-  </si>
-  <si>
-    <t>prueba98</t>
-  </si>
-  <si>
-    <t>prueba99</t>
-  </si>
-  <si>
-    <t>prueba100</t>
-  </si>
-  <si>
-    <t>prueba101</t>
-  </si>
-  <si>
-    <t>prueba102</t>
-  </si>
-  <si>
-    <t>prueba103</t>
-  </si>
-  <si>
-    <t>prueba104</t>
-  </si>
-  <si>
-    <t>prueba105</t>
-  </si>
-  <si>
-    <t>prueba106</t>
-  </si>
-  <si>
-    <t>prueba107</t>
-  </si>
-  <si>
-    <t>prueba108</t>
-  </si>
-  <si>
-    <t>prueba109</t>
-  </si>
-  <si>
-    <t>prueba110</t>
-  </si>
-  <si>
-    <t>prueba111</t>
-  </si>
-  <si>
-    <t>prueba112</t>
-  </si>
-  <si>
-    <t>prueba113</t>
-  </si>
-  <si>
-    <t>prueba114</t>
-  </si>
-  <si>
-    <t>prueba115</t>
-  </si>
-  <si>
-    <t>prueba116</t>
-  </si>
-  <si>
-    <t>prueba117</t>
-  </si>
-  <si>
-    <t>prueba118</t>
-  </si>
-  <si>
-    <t>prueba119</t>
-  </si>
-  <si>
-    <t>prueba120</t>
-  </si>
-  <si>
-    <t>prueba121</t>
-  </si>
-  <si>
-    <t>prueba122</t>
-  </si>
-  <si>
-    <t>prueba123</t>
-  </si>
-  <si>
-    <t>prueba124</t>
-  </si>
-  <si>
-    <t>prueba125</t>
-  </si>
-  <si>
-    <t>prueba126</t>
-  </si>
-  <si>
-    <t>prueba127</t>
-  </si>
-  <si>
-    <t>prueba128</t>
-  </si>
-  <si>
-    <t>prueba129</t>
-  </si>
-  <si>
-    <t>prueba130</t>
-  </si>
-  <si>
-    <t>prueba131</t>
-  </si>
-  <si>
-    <t>prueba132</t>
-  </si>
-  <si>
-    <t>prueba133</t>
-  </si>
-  <si>
-    <t>prueba134</t>
-  </si>
-  <si>
-    <t>prueba135</t>
-  </si>
-  <si>
-    <t>prueba136</t>
-  </si>
-  <si>
-    <t>prueba137</t>
-  </si>
-  <si>
-    <t>prueba138</t>
-  </si>
-  <si>
-    <t>prueba139</t>
-  </si>
-  <si>
-    <t>prueba140</t>
-  </si>
-  <si>
-    <t>prueba141</t>
-  </si>
-  <si>
-    <t>prueba142</t>
-  </si>
-  <si>
-    <t>prueba143</t>
-  </si>
-  <si>
-    <t>prueba144</t>
-  </si>
-  <si>
-    <t>prueba145</t>
-  </si>
-  <si>
-    <t>prueba146</t>
+    <t>Duran Islas</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Mildred</t>
+  </si>
+  <si>
+    <t>Fragoso Briones</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Luz Del Carmen</t>
+  </si>
+  <si>
+    <t>Guerrero Roque</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Hernandez Avendaño</t>
+  </si>
+  <si>
+    <t>Gonzalez Flores</t>
+  </si>
+  <si>
+    <t>Fatima Guadalupe</t>
+  </si>
+  <si>
+    <t>Hernandez Gonzalez</t>
+  </si>
+  <si>
+    <t>Jacqueline Lucero</t>
+  </si>
+  <si>
+    <t>Hernandez Montiel</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Jimenez Basilio</t>
+  </si>
+  <si>
+    <t>Angel Axel</t>
+  </si>
+  <si>
+    <t>Juarez Muñoz</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>Mendez Baez</t>
+  </si>
+  <si>
+    <t>Alma Nelly</t>
+  </si>
+  <si>
+    <t>Nava Martinez</t>
+  </si>
+  <si>
+    <t>Jessica Paola</t>
+  </si>
+  <si>
+    <t>Neria Cabrera</t>
+  </si>
+  <si>
+    <t>Wendy Jocelin</t>
+  </si>
+  <si>
+    <t>Perez Luna</t>
+  </si>
+  <si>
+    <t>Luz Karla</t>
+  </si>
+  <si>
+    <t>Reyes Cruz</t>
+  </si>
+  <si>
+    <t>Ernesto Alonso</t>
+  </si>
+  <si>
+    <t>Romero Muñoz</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen</t>
+  </si>
+  <si>
+    <t>Sanchez Vazquez</t>
+  </si>
+  <si>
+    <t>Ana Karen</t>
+  </si>
+  <si>
+    <t>Tlahuitzo Luna</t>
+  </si>
+  <si>
+    <t>Miguel Alejandro</t>
+  </si>
+  <si>
+    <t>Vazquez Martinez</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Garcia Saldaña</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Lorenzana Huerta</t>
+  </si>
+  <si>
+    <t>Marycruz</t>
+  </si>
+  <si>
+    <t>Perez Cuatianquiz</t>
+  </si>
+  <si>
+    <t>Johana</t>
+  </si>
+  <si>
+    <t>Perez Sanchez</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Reyes Flores</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Salgado Velazquez</t>
+  </si>
+  <si>
+    <t>Maria Viridiana</t>
+  </si>
+  <si>
+    <t>Sanchez Martinez</t>
+  </si>
+  <si>
+    <t>Sanluis Lopez</t>
+  </si>
+  <si>
+    <t>Janelly Nahomi</t>
+  </si>
+  <si>
+    <t>Juan Antonio</t>
+  </si>
+  <si>
+    <t>Teacalco Perez</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>Vazquez Bautista</t>
+  </si>
+  <si>
+    <t>Sandra Quitze</t>
+  </si>
+  <si>
+    <t>Vazquez Padron</t>
+  </si>
+  <si>
+    <t>Maricruz</t>
+  </si>
+  <si>
+    <t>De Gabriel Lopez</t>
+  </si>
+  <si>
+    <t>Lizeth</t>
+  </si>
+  <si>
+    <t>Flores Sanluis</t>
+  </si>
+  <si>
+    <t>Paco Uriel</t>
+  </si>
+  <si>
+    <t>Flores Vazquez</t>
+  </si>
+  <si>
+    <t>Gomez Flores</t>
+  </si>
+  <si>
+    <t>Elesvan Arturo</t>
+  </si>
+  <si>
+    <t>Lopez Lima</t>
+  </si>
+  <si>
+    <t>Julio Cesar</t>
+  </si>
+  <si>
+    <t>Martinez Caute</t>
+  </si>
+  <si>
+    <t>Miguel Angel</t>
+  </si>
+  <si>
+    <t>Mejia Perez</t>
+  </si>
+  <si>
+    <t>Xochil Sheila</t>
+  </si>
+  <si>
+    <t>Navarro Hernandez</t>
+  </si>
+  <si>
+    <t>Brenda Lizet</t>
+  </si>
+  <si>
+    <t>Neria Rodriguez</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Saldaña Ortiz</t>
+  </si>
+  <si>
+    <t>Victor Manuel</t>
+  </si>
+  <si>
+    <t>Tamayo Briones</t>
+  </si>
+  <si>
+    <t>Maria Estefany</t>
+  </si>
+  <si>
+    <t>Torres Lara</t>
+  </si>
+  <si>
+    <t>Vasquez Lopez</t>
+  </si>
+  <si>
+    <t>Marco Ivan</t>
+  </si>
+  <si>
+    <t>Alison Yamileth</t>
+  </si>
+  <si>
+    <t>Aguilar Pineda</t>
+  </si>
+  <si>
+    <t>Siloe Diego</t>
+  </si>
+  <si>
+    <t>Andriano Avelar</t>
+  </si>
+  <si>
+    <t>Jhonathan Jovanny</t>
+  </si>
+  <si>
+    <t>Contreras Tzintzun</t>
+  </si>
+  <si>
+    <t>Fernandez Montiel</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Garcia Ortiz</t>
+  </si>
+  <si>
+    <t>Romel</t>
+  </si>
+  <si>
+    <t>Gonzalez Herrera</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>Luis Angel</t>
+  </si>
+  <si>
+    <t>Guzman Romano</t>
+  </si>
+  <si>
+    <t>Lopez Corona</t>
+  </si>
+  <si>
+    <t>Alejandra Guadalupe</t>
+  </si>
+  <si>
+    <t>Montiel Ramos</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Omaña De Gante</t>
+  </si>
+  <si>
+    <t>Perez Rodriguez</t>
+  </si>
+  <si>
+    <t>Horacio</t>
+  </si>
+  <si>
+    <t>Ernesto Daniel</t>
+  </si>
+  <si>
+    <t>Ponce Hernandez</t>
+  </si>
+  <si>
+    <t>Marisol</t>
+  </si>
+  <si>
+    <t>Ramos Ramos</t>
+  </si>
+  <si>
+    <t>Ian Santiago</t>
+  </si>
+  <si>
+    <t>Rivas Neria</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Vazquez Cervantes</t>
+  </si>
+  <si>
+    <t>Luis Alfonso</t>
+  </si>
+  <si>
+    <t>Vazquez Leon</t>
+  </si>
+  <si>
+    <t>Jose Ricardo</t>
+  </si>
+  <si>
+    <t>Aquino Parraguirre</t>
+  </si>
+  <si>
+    <t>Wendy Selene</t>
+  </si>
+  <si>
+    <t>Cocoletzi Flores</t>
+  </si>
+  <si>
+    <t>Felipe De Jesus</t>
+  </si>
+  <si>
+    <t>Colin Vasquez</t>
+  </si>
+  <si>
+    <t>Jose Guadalupe</t>
+  </si>
+  <si>
+    <t>Cortes Cruz</t>
+  </si>
+  <si>
+    <t>Daniel Sammuel</t>
+  </si>
+  <si>
+    <t>Cuayahuitl Perez</t>
+  </si>
+  <si>
+    <t>Carlos Jair</t>
+  </si>
+  <si>
+    <t>Fernandez Guarneros</t>
+  </si>
+  <si>
+    <t>Nelly Naibet</t>
+  </si>
+  <si>
+    <t>Fragoso Muñoz</t>
+  </si>
+  <si>
+    <t>Yessyca</t>
+  </si>
+  <si>
+    <t>Garcia Campos</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Gonzalez Jimenez</t>
+  </si>
+  <si>
+    <t>Juan Daniel</t>
+  </si>
+  <si>
+    <t>Gonzalez Vasquez</t>
+  </si>
+  <si>
+    <t>Rodrigo Michael</t>
+  </si>
+  <si>
+    <t>Guirao Onofre</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Hernandez Carballo</t>
+  </si>
+  <si>
+    <t>Hernandez Carrasco</t>
+  </si>
+  <si>
+    <t>Dulce Concepción</t>
+  </si>
+  <si>
+    <t>Juarez Soledad</t>
+  </si>
+  <si>
+    <t>Luis Alejandro</t>
+  </si>
+  <si>
+    <t>Lopez Olivares</t>
+  </si>
+  <si>
+    <t>Jose Daniel</t>
+  </si>
+  <si>
+    <t>Morales Fernandez</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Palestina Huerta</t>
+  </si>
+  <si>
+    <t>Jesus Uriel</t>
+  </si>
+  <si>
+    <t>Barragan Lopez</t>
+  </si>
+  <si>
+    <t>Jose Fernando</t>
+  </si>
+  <si>
+    <t>Conde Paredes</t>
+  </si>
+  <si>
+    <t>Gonzalez Sierra</t>
+  </si>
+  <si>
+    <t>Jose Adrian</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Juarez Garcia</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Perez Ordoñez</t>
+  </si>
+  <si>
+    <t>Emanuel</t>
+  </si>
+  <si>
+    <t>Rangel Luna</t>
+  </si>
+  <si>
+    <t>Martha Clarissa</t>
+  </si>
+  <si>
+    <t>Salamanca Rojas</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Sanchez Flores</t>
+  </si>
+  <si>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>Sanchez Perez</t>
+  </si>
+  <si>
+    <t>Marina Guadalupe</t>
+  </si>
+  <si>
+    <t>Sanchez Rodriguez</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Santamaria Sanchez</t>
+  </si>
+  <si>
+    <t>Santos Islas</t>
+  </si>
+  <si>
+    <t>Axel Jair</t>
+  </si>
+  <si>
+    <t>Segundo Leon</t>
+  </si>
+  <si>
+    <t>Sherlin</t>
+  </si>
+  <si>
+    <t>Toriz Pérez</t>
+  </si>
+  <si>
+    <t>Trinidad Rodriguez</t>
+  </si>
+  <si>
+    <t>Diego Edgar</t>
+  </si>
+  <si>
+    <t>Ugarte Perez</t>
+  </si>
+  <si>
+    <t>Jose Luis</t>
+  </si>
+  <si>
+    <t>Vazquez Flores</t>
+  </si>
+  <si>
+    <t>Luis Miguel</t>
+  </si>
+  <si>
+    <t>Vazquez Juarez</t>
+  </si>
+  <si>
+    <t>Vannesa</t>
+  </si>
+  <si>
+    <t>Vega Huerta</t>
+  </si>
+  <si>
+    <t>Luis Daniel</t>
+  </si>
+  <si>
+    <t>Altamirano Hernandez</t>
+  </si>
+  <si>
+    <t>Luis Fernando</t>
+  </si>
+  <si>
+    <t>Caute Hernandez</t>
+  </si>
+  <si>
+    <t>Jose Marcos</t>
+  </si>
+  <si>
+    <t>Conde Vazquez</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Espinoza Lopez</t>
+  </si>
+  <si>
+    <t>Jacobo Rodrigo</t>
+  </si>
+  <si>
+    <t>Hernandez Mendieta</t>
+  </si>
+  <si>
+    <t>Josthin</t>
+  </si>
+  <si>
+    <t>Hernandez Tehozol</t>
+  </si>
+  <si>
+    <t>Cesar Jafet</t>
+  </si>
+  <si>
+    <t>Lima Ipatzi</t>
+  </si>
+  <si>
+    <t>Carlos Jesus</t>
+  </si>
+  <si>
+    <t>Lopez Chacon</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Luna Huerta</t>
+  </si>
+  <si>
+    <t>Omar Yasser</t>
+  </si>
+  <si>
+    <t>Martinez Sanchez</t>
+  </si>
+  <si>
+    <t>Mata Mora</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Montes Magdaleno</t>
+  </si>
+  <si>
+    <t>Morales Torres</t>
+  </si>
+  <si>
+    <t>Jose Ramon</t>
+  </si>
+  <si>
+    <t>Navarro Gonzalez</t>
+  </si>
+  <si>
+    <t>Ortiz Hernandez</t>
+  </si>
+  <si>
+    <t>Gloria Michelle</t>
+  </si>
+  <si>
+    <t>Roman Perez</t>
+  </si>
+  <si>
+    <t>Edwing</t>
+  </si>
+  <si>
+    <t>Ruiz Sanchez</t>
+  </si>
+  <si>
+    <t>Jose Raul</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Barrera Barrera</t>
+  </si>
+  <si>
+    <t>Josefina</t>
+  </si>
+  <si>
+    <t>Benites Santiago</t>
+  </si>
+  <si>
+    <t>Briones Sanchez</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Castañeda Luna</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>Cervantes Caute</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Fonseca Flores</t>
+  </si>
+  <si>
+    <t>Yesenia</t>
+  </si>
+  <si>
+    <t>Hernandez Marquez</t>
+  </si>
+  <si>
+    <t>Jair Ramon</t>
+  </si>
+  <si>
+    <t>Huerta Salinas</t>
+  </si>
+  <si>
+    <t>Fabiola</t>
+  </si>
+  <si>
+    <t>Laureano Macias</t>
+  </si>
+  <si>
+    <t>Luciano Jimenez</t>
+  </si>
+  <si>
+    <t>Pedro Hernan</t>
+  </si>
+  <si>
+    <t>Magdaleno Saldaña</t>
+  </si>
+  <si>
+    <t>Geraldi Ruby</t>
+  </si>
+  <si>
+    <t>Montes Rosas</t>
+  </si>
+  <si>
+    <t>Morales Xolocotzi</t>
+  </si>
+  <si>
+    <t>Lizbeth</t>
+  </si>
+  <si>
+    <t>Moreno Hernandez</t>
+  </si>
+  <si>
+    <t>Diana Karen</t>
+  </si>
+  <si>
+    <t>Parra Sosa</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Perez Melendez</t>
+  </si>
+  <si>
+    <t>Vazquez Rivera</t>
+  </si>
+  <si>
+    <t>Mario Alberto</t>
+  </si>
+  <si>
+    <t>Alonso Alvarado</t>
+  </si>
+  <si>
+    <t>Cristina Del Carmen</t>
+  </si>
+  <si>
+    <t>Castillo Vidal</t>
+  </si>
+  <si>
+    <t>Alba Isela</t>
+  </si>
+  <si>
+    <t>Cuatecontzi Armas</t>
+  </si>
+  <si>
+    <t>Carina</t>
+  </si>
+  <si>
+    <t>Gonzalez Campos</t>
+  </si>
+  <si>
+    <t>Gutierrez Rodriguez</t>
+  </si>
+  <si>
+    <t>Lesly Lucero</t>
+  </si>
+  <si>
+    <t>Jimenez Fernandez</t>
+  </si>
+  <si>
+    <t>Larios Castillo</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Marquez Morales</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Muñoz Hernandez</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Aldahir</t>
+  </si>
+  <si>
+    <t>Ortega Rojas</t>
+  </si>
+  <si>
+    <t>Wiliams</t>
+  </si>
+  <si>
+    <t>Perez Luzan</t>
+  </si>
+  <si>
+    <t>Rosales Rocha</t>
+  </si>
+  <si>
+    <t>Julisa Montserrat</t>
+  </si>
+  <si>
+    <t>Valadez Ramirez</t>
+  </si>
+  <si>
+    <t>Zamora Carmona</t>
+  </si>
+  <si>
+    <t>uttlaxcala</t>
   </si>
 </sst>
 </file>
@@ -1767,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,13 +1730,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>310</v>
+        <v>163</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>311</v>
+        <v>164</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1814,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>313</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1823,5259 +1754,5224 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>123456789</v>
-      </c>
-      <c r="L2" t="s">
-        <v>314</v>
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>123456789</v>
-      </c>
-      <c r="L3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>123456789</v>
-      </c>
-      <c r="L4" t="s">
-        <v>316</v>
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>436</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>312</v>
+        <v>172</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>123456789</v>
-      </c>
-      <c r="L5" t="s">
-        <v>317</v>
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>436</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>123456789</v>
-      </c>
-      <c r="L6" t="s">
-        <v>318</v>
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>436</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>123456789</v>
-      </c>
-      <c r="L7" t="s">
-        <v>319</v>
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>123456789</v>
-      </c>
-      <c r="L8" t="s">
-        <v>320</v>
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>436</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>312</v>
+        <v>181</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>123456789</v>
-      </c>
-      <c r="L9" t="s">
-        <v>321</v>
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>436</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>123456789</v>
-      </c>
-      <c r="L10" t="s">
-        <v>322</v>
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>436</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>123456789</v>
-      </c>
-      <c r="L11" t="s">
-        <v>323</v>
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>436</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>123456789</v>
-      </c>
-      <c r="L12" t="s">
-        <v>324</v>
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>436</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>123456789</v>
-      </c>
-      <c r="L13" t="s">
-        <v>325</v>
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>436</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5">
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>123456789</v>
-      </c>
-      <c r="L14" t="s">
-        <v>326</v>
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>436</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15">
-        <v>123456789</v>
-      </c>
-      <c r="L15" t="s">
-        <v>327</v>
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>436</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16">
-        <v>123456789</v>
-      </c>
-      <c r="L16" t="s">
-        <v>328</v>
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>436</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17">
-        <v>123456789</v>
-      </c>
-      <c r="L17" t="s">
-        <v>329</v>
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>436</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18">
-        <v>123456789</v>
-      </c>
-      <c r="L18" t="s">
-        <v>330</v>
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>436</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19">
-        <v>123456789</v>
-      </c>
-      <c r="L19" t="s">
-        <v>331</v>
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>436</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="5">
         <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20">
-        <v>123456789</v>
-      </c>
-      <c r="L20" t="s">
-        <v>332</v>
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>436</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="5">
         <v>6</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21">
-        <v>123456789</v>
-      </c>
-      <c r="L21" t="s">
-        <v>333</v>
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>436</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22">
-        <v>123456789</v>
-      </c>
-      <c r="L22" t="s">
-        <v>334</v>
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>436</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="5">
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23">
-        <v>123456789</v>
-      </c>
-      <c r="L23" t="s">
-        <v>335</v>
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>436</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="4" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="5">
         <v>6</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24">
-        <v>123456789</v>
-      </c>
-      <c r="L24" t="s">
-        <v>336</v>
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>436</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="5">
         <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25">
-        <v>123456789</v>
-      </c>
-      <c r="L25" t="s">
-        <v>337</v>
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>436</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="5">
         <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26">
-        <v>123456789</v>
-      </c>
-      <c r="L26" t="s">
-        <v>338</v>
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
+        <v>436</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="5">
         <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27">
-        <v>123456789</v>
-      </c>
-      <c r="L27" t="s">
-        <v>339</v>
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>436</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="5">
         <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28">
-        <v>123456789</v>
-      </c>
-      <c r="L28" t="s">
-        <v>340</v>
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>436</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="5">
         <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29">
-        <v>123456789</v>
-      </c>
-      <c r="L29" t="s">
-        <v>341</v>
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>436</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="5">
         <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30">
-        <v>123456789</v>
-      </c>
-      <c r="L30" t="s">
-        <v>342</v>
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>436</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>123456789</v>
-      </c>
-      <c r="L31" t="s">
-        <v>343</v>
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>436</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5">
         <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <v>123456789</v>
-      </c>
-      <c r="L32" t="s">
-        <v>344</v>
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>436</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5">
         <v>3</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33">
-        <v>123456789</v>
-      </c>
-      <c r="L33" t="s">
-        <v>345</v>
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>436</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D34" s="5">
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34">
-        <v>123456789</v>
-      </c>
-      <c r="L34" t="s">
-        <v>346</v>
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>436</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <v>123456789</v>
-      </c>
-      <c r="L35" t="s">
-        <v>347</v>
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>436</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5">
         <v>3</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36">
-        <v>123456789</v>
-      </c>
-      <c r="L36" t="s">
-        <v>348</v>
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>436</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37">
-        <v>123456789</v>
-      </c>
-      <c r="L37" t="s">
-        <v>349</v>
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>436</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="4" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D38" s="5">
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38">
-        <v>123456789</v>
-      </c>
-      <c r="L38" t="s">
-        <v>350</v>
+        <v>11</v>
+      </c>
+      <c r="K38" t="s">
+        <v>436</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D39" s="5">
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39">
-        <v>123456789</v>
-      </c>
-      <c r="L39" t="s">
-        <v>351</v>
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>436</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40">
-        <v>123456789</v>
-      </c>
-      <c r="L40" t="s">
-        <v>352</v>
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>436</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D41" s="5">
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41">
-        <v>123456789</v>
-      </c>
-      <c r="L41" t="s">
-        <v>353</v>
+        <v>11</v>
+      </c>
+      <c r="K41" t="s">
+        <v>436</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D42" s="5">
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42">
-        <v>123456789</v>
-      </c>
-      <c r="L42" t="s">
-        <v>354</v>
+        <v>11</v>
+      </c>
+      <c r="K42" t="s">
+        <v>436</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="4" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D43" s="5">
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43">
-        <v>123456789</v>
-      </c>
-      <c r="L43" t="s">
-        <v>355</v>
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>436</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="4" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D44" s="5">
         <v>6</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44">
-        <v>123456789</v>
-      </c>
-      <c r="L44" t="s">
-        <v>356</v>
+        <v>11</v>
+      </c>
+      <c r="K44" t="s">
+        <v>436</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D45" s="5">
         <v>6</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45">
-        <v>123456789</v>
-      </c>
-      <c r="L45" t="s">
-        <v>357</v>
+        <v>11</v>
+      </c>
+      <c r="K45" t="s">
+        <v>436</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D46" s="5">
         <v>6</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46">
-        <v>123456789</v>
-      </c>
-      <c r="L46" t="s">
-        <v>358</v>
+        <v>11</v>
+      </c>
+      <c r="K46" t="s">
+        <v>436</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="4" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D47" s="5">
         <v>6</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47">
-        <v>123456789</v>
-      </c>
-      <c r="L47" t="s">
-        <v>359</v>
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>436</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="4" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D48" s="5">
         <v>6</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48">
-        <v>123456789</v>
-      </c>
-      <c r="L48" t="s">
-        <v>360</v>
+        <v>11</v>
+      </c>
+      <c r="K48" t="s">
+        <v>436</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="4" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D49" s="5">
         <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49">
-        <v>123456789</v>
-      </c>
-      <c r="L49" t="s">
-        <v>361</v>
+        <v>11</v>
+      </c>
+      <c r="K49" t="s">
+        <v>436</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D50" s="5">
         <v>6</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50">
-        <v>123456789</v>
-      </c>
-      <c r="L50" t="s">
-        <v>362</v>
+        <v>11</v>
+      </c>
+      <c r="K50" t="s">
+        <v>436</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D51" s="5">
         <v>6</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51">
-        <v>123456789</v>
-      </c>
-      <c r="L51" t="s">
-        <v>363</v>
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>436</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D52" s="5">
         <v>6</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52">
-        <v>123456789</v>
-      </c>
-      <c r="L52" t="s">
-        <v>364</v>
+        <v>11</v>
+      </c>
+      <c r="K52" t="s">
+        <v>436</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="4" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D53" s="5">
         <v>6</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53">
-        <v>123456789</v>
-      </c>
-      <c r="L53" t="s">
-        <v>365</v>
+        <v>11</v>
+      </c>
+      <c r="K53" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="4" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D54" s="5">
         <v>6</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54">
-        <v>123456789</v>
-      </c>
-      <c r="L54" t="s">
-        <v>366</v>
+        <v>11</v>
+      </c>
+      <c r="K54" t="s">
+        <v>436</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="4" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D55" s="5">
         <v>6</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55">
-        <v>123456789</v>
-      </c>
-      <c r="L55" t="s">
-        <v>367</v>
+        <v>11</v>
+      </c>
+      <c r="K55" t="s">
+        <v>436</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D56" s="5">
         <v>6</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56">
-        <v>123456789</v>
-      </c>
-      <c r="L56" t="s">
-        <v>368</v>
+        <v>11</v>
+      </c>
+      <c r="K56" t="s">
+        <v>436</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="4" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D57" s="5">
         <v>6</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57">
-        <v>123456789</v>
-      </c>
-      <c r="L57" t="s">
-        <v>369</v>
+        <v>11</v>
+      </c>
+      <c r="K57" t="s">
+        <v>436</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D58" s="5">
         <v>6</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58">
-        <v>123456789</v>
-      </c>
-      <c r="L58" t="s">
-        <v>370</v>
+        <v>11</v>
+      </c>
+      <c r="K58" t="s">
+        <v>436</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D59" s="5">
         <v>6</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59">
-        <v>123456789</v>
-      </c>
-      <c r="L59" t="s">
-        <v>371</v>
+        <v>11</v>
+      </c>
+      <c r="K59" t="s">
+        <v>436</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="4" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D60" s="5">
         <v>6</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>130</v>
+        <v>278</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60">
-        <v>123456789</v>
-      </c>
-      <c r="L60" t="s">
-        <v>372</v>
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
+        <v>436</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D61" s="5">
         <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61">
-        <v>123456789</v>
-      </c>
-      <c r="L61" t="s">
-        <v>373</v>
+        <v>11</v>
+      </c>
+      <c r="K61" t="s">
+        <v>436</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D62" s="5">
         <v>3</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62">
-        <v>123456789</v>
-      </c>
-      <c r="L62" t="s">
-        <v>374</v>
+        <v>11</v>
+      </c>
+      <c r="K62" t="s">
+        <v>436</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D63" s="5">
         <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K63">
-        <v>123456789</v>
-      </c>
-      <c r="L63" t="s">
-        <v>375</v>
+        <v>11</v>
+      </c>
+      <c r="K63" t="s">
+        <v>436</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D64" s="5">
         <v>3</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K64">
-        <v>123456789</v>
-      </c>
-      <c r="L64" t="s">
-        <v>376</v>
+        <v>11</v>
+      </c>
+      <c r="K64" t="s">
+        <v>436</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D65" s="5">
         <v>3</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65">
-        <v>123456789</v>
-      </c>
-      <c r="L65" t="s">
-        <v>377</v>
+        <v>11</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="4" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66">
-        <v>123456789</v>
-      </c>
-      <c r="L66" t="s">
-        <v>378</v>
+        <v>11</v>
+      </c>
+      <c r="K66" t="s">
+        <v>436</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D67" s="5">
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K67">
-        <v>123456789</v>
-      </c>
-      <c r="L67" t="s">
-        <v>379</v>
+        <v>11</v>
+      </c>
+      <c r="K67" t="s">
+        <v>436</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D68" s="5">
         <v>3</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68">
-        <v>123456789</v>
-      </c>
-      <c r="L68" t="s">
-        <v>380</v>
+        <v>11</v>
+      </c>
+      <c r="K68" t="s">
+        <v>436</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="4" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D69" s="5">
         <v>3</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K69">
-        <v>123456789</v>
-      </c>
-      <c r="L69" t="s">
-        <v>381</v>
+        <v>11</v>
+      </c>
+      <c r="K69" t="s">
+        <v>436</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D70" s="5">
         <v>3</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70">
-        <v>123456789</v>
-      </c>
-      <c r="L70" t="s">
-        <v>382</v>
+        <v>11</v>
+      </c>
+      <c r="K70" t="s">
+        <v>436</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="4" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D71" s="5">
         <v>3</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71">
-        <v>123456789</v>
-      </c>
-      <c r="L71" t="s">
-        <v>383</v>
+        <v>11</v>
+      </c>
+      <c r="K71" t="s">
+        <v>436</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D72" s="5">
         <v>3</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K72">
-        <v>123456789</v>
-      </c>
-      <c r="L72" t="s">
-        <v>384</v>
+        <v>11</v>
+      </c>
+      <c r="K72" t="s">
+        <v>436</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="4" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D73" s="5">
         <v>3</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K73">
-        <v>123456789</v>
-      </c>
-      <c r="L73" t="s">
-        <v>385</v>
+        <v>11</v>
+      </c>
+      <c r="K73" t="s">
+        <v>436</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="4" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D74" s="5">
         <v>3</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K74">
-        <v>123456789</v>
-      </c>
-      <c r="L74" t="s">
-        <v>386</v>
+        <v>11</v>
+      </c>
+      <c r="K74" t="s">
+        <v>436</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="4" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D75" s="5">
         <v>3</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K75">
-        <v>123456789</v>
-      </c>
-      <c r="L75" t="s">
-        <v>387</v>
+        <v>11</v>
+      </c>
+      <c r="K75" t="s">
+        <v>436</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="4" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D76" s="5">
         <v>3</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
+        <v>162</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="I76" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K76">
-        <v>123456789</v>
-      </c>
-      <c r="L76" t="s">
-        <v>388</v>
+        <v>11</v>
+      </c>
+      <c r="K76" t="s">
+        <v>436</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="4" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D77" s="5">
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>312</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K77">
-        <v>123456789</v>
-      </c>
-      <c r="L77" t="s">
-        <v>389</v>
+        <v>11</v>
+      </c>
+      <c r="K77" t="s">
+        <v>436</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="4" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D78" s="5">
         <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78">
-        <v>123456789</v>
-      </c>
-      <c r="L78" t="s">
-        <v>390</v>
+        <v>11</v>
+      </c>
+      <c r="K78" t="s">
+        <v>436</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="4" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D79" s="5">
         <v>3</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K79">
-        <v>123456789</v>
-      </c>
-      <c r="L79" t="s">
-        <v>391</v>
+        <v>11</v>
+      </c>
+      <c r="K79" t="s">
+        <v>436</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="4" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D80" s="5">
         <v>3</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K80">
-        <v>123456789</v>
-      </c>
-      <c r="L80" t="s">
-        <v>392</v>
+        <v>11</v>
+      </c>
+      <c r="K80" t="s">
+        <v>436</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D81" s="5">
         <v>3</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K81">
-        <v>123456789</v>
-      </c>
-      <c r="L81" t="s">
-        <v>393</v>
+        <v>11</v>
+      </c>
+      <c r="K81" t="s">
+        <v>436</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="4" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D82" s="5">
         <v>3</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K82">
-        <v>123456789</v>
-      </c>
-      <c r="L82" t="s">
-        <v>394</v>
+        <v>11</v>
+      </c>
+      <c r="K82" t="s">
+        <v>436</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D83" s="5">
         <v>3</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>178</v>
+        <v>323</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83">
-        <v>123456789</v>
-      </c>
-      <c r="L83" t="s">
-        <v>395</v>
+        <v>11</v>
+      </c>
+      <c r="K83" t="s">
+        <v>436</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="4" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D84" s="5">
         <v>3</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K84">
-        <v>123456789</v>
-      </c>
-      <c r="L84" t="s">
-        <v>396</v>
+        <v>11</v>
+      </c>
+      <c r="K84" t="s">
+        <v>436</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="4" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>182</v>
+        <v>327</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85">
-        <v>123456789</v>
-      </c>
-      <c r="L85" t="s">
-        <v>397</v>
+        <v>11</v>
+      </c>
+      <c r="K85" t="s">
+        <v>436</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="4" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D86" s="5">
         <v>3</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K86">
-        <v>123456789</v>
-      </c>
-      <c r="L86" t="s">
-        <v>398</v>
+        <v>11</v>
+      </c>
+      <c r="K86" t="s">
+        <v>436</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="4" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D87" s="5">
         <v>3</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K87">
-        <v>123456789</v>
-      </c>
-      <c r="L87" t="s">
-        <v>399</v>
+        <v>11</v>
+      </c>
+      <c r="K87" t="s">
+        <v>436</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="4" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K88">
-        <v>123456789</v>
-      </c>
-      <c r="L88" t="s">
-        <v>400</v>
+        <v>11</v>
+      </c>
+      <c r="K88" t="s">
+        <v>436</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="4" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D89" s="5">
         <v>3</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K89">
-        <v>123456789</v>
-      </c>
-      <c r="L89" t="s">
-        <v>401</v>
+        <v>11</v>
+      </c>
+      <c r="K89" t="s">
+        <v>436</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="4" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D90" s="5">
         <v>3</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K90">
-        <v>123456789</v>
-      </c>
-      <c r="L90" t="s">
-        <v>402</v>
+        <v>11</v>
+      </c>
+      <c r="K90" t="s">
+        <v>436</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="4" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D91" s="5">
         <v>3</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K91">
-        <v>123456789</v>
-      </c>
-      <c r="L91" t="s">
-        <v>403</v>
+        <v>11</v>
+      </c>
+      <c r="K91" t="s">
+        <v>436</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="4" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D92" s="5">
         <v>3</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K92">
-        <v>123456789</v>
-      </c>
-      <c r="L92" t="s">
-        <v>404</v>
+        <v>11</v>
+      </c>
+      <c r="K92" t="s">
+        <v>436</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="4" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D93" s="5">
         <v>3</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K93">
-        <v>123456789</v>
-      </c>
-      <c r="L93" t="s">
-        <v>405</v>
+        <v>11</v>
+      </c>
+      <c r="K93" t="s">
+        <v>436</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="4" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D94" s="5">
         <v>3</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K94">
-        <v>123456789</v>
-      </c>
-      <c r="L94" t="s">
-        <v>406</v>
+        <v>11</v>
+      </c>
+      <c r="K94" t="s">
+        <v>436</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="4" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D95" s="5">
         <v>3</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>202</v>
+        <v>345</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K95">
-        <v>123456789</v>
-      </c>
-      <c r="L95" t="s">
-        <v>407</v>
+        <v>11</v>
+      </c>
+      <c r="K95" t="s">
+        <v>436</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="4" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D96" s="5">
         <v>3</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K96">
-        <v>123456789</v>
-      </c>
-      <c r="L96" t="s">
-        <v>408</v>
+        <v>11</v>
+      </c>
+      <c r="K96" t="s">
+        <v>436</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="4" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D97" s="5">
         <v>6</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>206</v>
+        <v>349</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K97">
-        <v>123456789</v>
-      </c>
-      <c r="L97" t="s">
-        <v>409</v>
+        <v>11</v>
+      </c>
+      <c r="K97" t="s">
+        <v>436</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="4" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D98" s="5">
         <v>6</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K98">
-        <v>123456789</v>
-      </c>
-      <c r="L98" t="s">
-        <v>410</v>
+        <v>11</v>
+      </c>
+      <c r="K98" t="s">
+        <v>436</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="4" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D99" s="5">
         <v>6</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>210</v>
+        <v>353</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K99">
-        <v>123456789</v>
-      </c>
-      <c r="L99" t="s">
-        <v>411</v>
+        <v>11</v>
+      </c>
+      <c r="K99" t="s">
+        <v>436</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="4" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D100" s="5">
         <v>6</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K100">
-        <v>123456789</v>
-      </c>
-      <c r="L100" t="s">
-        <v>412</v>
+        <v>11</v>
+      </c>
+      <c r="K100" t="s">
+        <v>436</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="4" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D101" s="5">
         <v>6</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>214</v>
+        <v>357</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K101">
-        <v>123456789</v>
-      </c>
-      <c r="L101" t="s">
-        <v>413</v>
+        <v>11</v>
+      </c>
+      <c r="K101" t="s">
+        <v>436</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="4" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D102" s="5">
         <v>6</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>216</v>
+        <v>359</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K102">
-        <v>123456789</v>
-      </c>
-      <c r="L102" t="s">
-        <v>414</v>
+        <v>11</v>
+      </c>
+      <c r="K102" t="s">
+        <v>436</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="4" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D103" s="5">
         <v>6</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>218</v>
+        <v>361</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K103">
-        <v>123456789</v>
-      </c>
-      <c r="L103" t="s">
-        <v>415</v>
+        <v>11</v>
+      </c>
+      <c r="K103" t="s">
+        <v>436</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="4" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D104" s="5">
         <v>6</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K104">
-        <v>123456789</v>
-      </c>
-      <c r="L104" t="s">
-        <v>416</v>
+        <v>11</v>
+      </c>
+      <c r="K104" t="s">
+        <v>436</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="4" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D105" s="5">
         <v>6</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K105">
-        <v>123456789</v>
-      </c>
-      <c r="L105" t="s">
-        <v>417</v>
+        <v>11</v>
+      </c>
+      <c r="K105" t="s">
+        <v>436</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="4" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D106" s="5">
         <v>6</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K106">
-        <v>123456789</v>
-      </c>
-      <c r="L106" t="s">
-        <v>418</v>
+        <v>11</v>
+      </c>
+      <c r="K106" t="s">
+        <v>436</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="4" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D107" s="5">
         <v>6</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K107">
-        <v>123456789</v>
-      </c>
-      <c r="L107" t="s">
-        <v>419</v>
+        <v>11</v>
+      </c>
+      <c r="K107" t="s">
+        <v>436</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="4" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D108" s="5">
         <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K108">
-        <v>123456789</v>
-      </c>
-      <c r="L108" t="s">
-        <v>420</v>
+        <v>11</v>
+      </c>
+      <c r="K108" t="s">
+        <v>436</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="4" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D109" s="5">
         <v>6</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K109">
-        <v>123456789</v>
-      </c>
-      <c r="L109" t="s">
-        <v>421</v>
+        <v>11</v>
+      </c>
+      <c r="K109" t="s">
+        <v>436</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="4" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D110" s="5">
         <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K110">
-        <v>123456789</v>
-      </c>
-      <c r="L110" t="s">
-        <v>422</v>
+        <v>11</v>
+      </c>
+      <c r="K110" t="s">
+        <v>436</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="4" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D111" s="5">
         <v>6</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K111">
-        <v>123456789</v>
-      </c>
-      <c r="L111" t="s">
-        <v>423</v>
+        <v>11</v>
+      </c>
+      <c r="K111" t="s">
+        <v>436</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="4" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D112" s="5">
         <v>6</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>236</v>
+        <v>376</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K112">
-        <v>123456789</v>
-      </c>
-      <c r="L112" t="s">
-        <v>424</v>
+        <v>11</v>
+      </c>
+      <c r="K112" t="s">
+        <v>436</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="4" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D113" s="5">
         <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K113">
-        <v>123456789</v>
-      </c>
-      <c r="L113" t="s">
-        <v>425</v>
+        <v>11</v>
+      </c>
+      <c r="K113" t="s">
+        <v>436</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="4" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D114" s="5">
         <v>6</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K114">
-        <v>123456789</v>
-      </c>
-      <c r="L114" t="s">
-        <v>426</v>
+        <v>11</v>
+      </c>
+      <c r="K114" t="s">
+        <v>436</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="4" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D115" s="5">
         <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>242</v>
+        <v>381</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K115">
-        <v>123456789</v>
-      </c>
-      <c r="L115" t="s">
-        <v>427</v>
+        <v>11</v>
+      </c>
+      <c r="K115" t="s">
+        <v>436</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="4" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D116" s="5">
         <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K116">
-        <v>123456789</v>
-      </c>
-      <c r="L116" t="s">
-        <v>428</v>
+        <v>11</v>
+      </c>
+      <c r="K116" t="s">
+        <v>436</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="4" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D117" s="5">
         <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K117">
-        <v>123456789</v>
-      </c>
-      <c r="L117" t="s">
-        <v>429</v>
+        <v>11</v>
+      </c>
+      <c r="K117" t="s">
+        <v>436</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="4" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D118" s="5">
         <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K118">
-        <v>123456789</v>
-      </c>
-      <c r="L118" t="s">
-        <v>430</v>
+        <v>11</v>
+      </c>
+      <c r="K118" t="s">
+        <v>436</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="4" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D119" s="5">
         <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K119">
-        <v>123456789</v>
-      </c>
-      <c r="L119" t="s">
-        <v>431</v>
+        <v>11</v>
+      </c>
+      <c r="K119" t="s">
+        <v>436</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="4" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D120" s="5">
         <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>253</v>
+        <v>390</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K120">
-        <v>123456789</v>
-      </c>
-      <c r="L120" t="s">
-        <v>432</v>
+        <v>11</v>
+      </c>
+      <c r="K120" t="s">
+        <v>436</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="4" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D121" s="5">
         <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K121">
-        <v>123456789</v>
-      </c>
-      <c r="L121" t="s">
-        <v>433</v>
+        <v>11</v>
+      </c>
+      <c r="K121" t="s">
+        <v>436</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="4" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D122" s="5">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K122">
-        <v>123456789</v>
-      </c>
-      <c r="L122" t="s">
-        <v>434</v>
+        <v>11</v>
+      </c>
+      <c r="K122" t="s">
+        <v>436</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="4" t="s">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D123" s="5">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>259</v>
+        <v>396</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K123">
-        <v>123456789</v>
-      </c>
-      <c r="L123" t="s">
-        <v>435</v>
+        <v>11</v>
+      </c>
+      <c r="K123" t="s">
+        <v>436</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="4" t="s">
-        <v>260</v>
+        <v>138</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D124" s="5">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K124">
-        <v>123456789</v>
-      </c>
-      <c r="L124" t="s">
-        <v>436</v>
+        <v>11</v>
+      </c>
+      <c r="K124" t="s">
+        <v>436</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="4" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D125" s="5">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>263</v>
+        <v>399</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K125">
-        <v>123456789</v>
-      </c>
-      <c r="L125" t="s">
-        <v>437</v>
+        <v>11</v>
+      </c>
+      <c r="K125" t="s">
+        <v>436</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="4" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D126" s="5">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>265</v>
+        <v>401</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K126">
-        <v>123456789</v>
-      </c>
-      <c r="L126" t="s">
-        <v>438</v>
+        <v>11</v>
+      </c>
+      <c r="K126" t="s">
+        <v>436</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="4" t="s">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D127" s="5">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K127">
-        <v>123456789</v>
-      </c>
-      <c r="L127" t="s">
-        <v>439</v>
+        <v>11</v>
+      </c>
+      <c r="K127" t="s">
+        <v>436</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="4" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D128" s="5">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>269</v>
+        <v>404</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>312</v>
+        <v>405</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K128">
-        <v>123456789</v>
-      </c>
-      <c r="L128" t="s">
-        <v>440</v>
+        <v>11</v>
+      </c>
+      <c r="K128" t="s">
+        <v>436</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" s="4" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D129" s="5">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>271</v>
+        <v>406</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K129">
-        <v>123456789</v>
-      </c>
-      <c r="L129" t="s">
-        <v>441</v>
+        <v>11</v>
+      </c>
+      <c r="K129" t="s">
+        <v>436</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="4" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D130" s="5">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K130">
-        <v>123456789</v>
-      </c>
-      <c r="L130" t="s">
-        <v>442</v>
+        <v>11</v>
+      </c>
+      <c r="K130" t="s">
+        <v>436</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="B131" s="4" t="s">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D131" s="5">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K131">
-        <v>123456789</v>
-      </c>
-      <c r="L131" t="s">
-        <v>443</v>
+        <v>11</v>
+      </c>
+      <c r="K131" t="s">
+        <v>436</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="4" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D132" s="5">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>277</v>
+        <v>411</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K132">
-        <v>123456789</v>
-      </c>
-      <c r="L132" t="s">
-        <v>444</v>
+        <v>11</v>
+      </c>
+      <c r="K132" t="s">
+        <v>436</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="4" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D133" s="5">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>279</v>
+        <v>413</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K133">
-        <v>123456789</v>
-      </c>
-      <c r="L133" t="s">
-        <v>445</v>
+        <v>11</v>
+      </c>
+      <c r="K133" t="s">
+        <v>436</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="4" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D134" s="5">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K134">
-        <v>123456789</v>
-      </c>
-      <c r="L134" t="s">
-        <v>446</v>
+        <v>11</v>
+      </c>
+      <c r="K134" t="s">
+        <v>436</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="4" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D135" s="5">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K135">
-        <v>123456789</v>
-      </c>
-      <c r="L135" t="s">
-        <v>447</v>
+        <v>11</v>
+      </c>
+      <c r="K135" t="s">
+        <v>436</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="4" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D136" s="5">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>312</v>
+        <v>419</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K136">
-        <v>123456789</v>
-      </c>
-      <c r="L136" t="s">
-        <v>448</v>
+        <v>11</v>
+      </c>
+      <c r="K136" t="s">
+        <v>436</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="4" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D137" s="5">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>287</v>
+        <v>420</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>312</v>
+        <v>421</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K137">
-        <v>123456789</v>
-      </c>
-      <c r="L137" t="s">
-        <v>449</v>
+        <v>11</v>
+      </c>
+      <c r="K137" t="s">
+        <v>436</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" s="4" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D138" s="5">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K138">
-        <v>123456789</v>
-      </c>
-      <c r="L138" t="s">
-        <v>450</v>
+        <v>11</v>
+      </c>
+      <c r="K138" t="s">
+        <v>436</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="4" t="s">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D139" s="5">
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>291</v>
+        <v>423</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>312</v>
+        <v>424</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K139">
-        <v>123456789</v>
-      </c>
-      <c r="L139" t="s">
-        <v>451</v>
+        <v>11</v>
+      </c>
+      <c r="K139" t="s">
+        <v>436</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="4" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D140" s="5">
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K140">
-        <v>123456789</v>
-      </c>
-      <c r="L140" t="s">
-        <v>452</v>
+        <v>11</v>
+      </c>
+      <c r="K140" t="s">
+        <v>436</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="4" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D141" s="5">
         <v>9</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G141" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>295</v>
+        <v>427</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K141">
-        <v>123456789</v>
-      </c>
-      <c r="L141" t="s">
-        <v>453</v>
+        <v>11</v>
+      </c>
+      <c r="K141" t="s">
+        <v>436</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="B142" s="4" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D142" s="5">
         <v>9</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>297</v>
+        <v>428</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>312</v>
+        <v>429</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K142">
-        <v>123456789</v>
-      </c>
-      <c r="L142" t="s">
-        <v>454</v>
+        <v>11</v>
+      </c>
+      <c r="K142" t="s">
+        <v>436</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="4" t="s">
-        <v>298</v>
+        <v>157</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D143" s="5">
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>299</v>
+        <v>430</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K143">
-        <v>123456789</v>
-      </c>
-      <c r="L143" t="s">
-        <v>455</v>
+        <v>11</v>
+      </c>
+      <c r="K143" t="s">
+        <v>436</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" s="4" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D144" s="5">
         <v>9</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K144">
-        <v>123456789</v>
-      </c>
-      <c r="L144" t="s">
-        <v>456</v>
+        <v>11</v>
+      </c>
+      <c r="K144" t="s">
+        <v>436</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="4" t="s">
-        <v>302</v>
+        <v>159</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D145" s="5">
         <v>9</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>312</v>
+        <v>434</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K145">
-        <v>123456789</v>
-      </c>
-      <c r="L145" t="s">
-        <v>457</v>
+        <v>11</v>
+      </c>
+      <c r="K145" t="s">
+        <v>436</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="4" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="D146" s="5">
         <v>9</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G146" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K146">
-        <v>123456789</v>
-      </c>
-      <c r="L146" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B147">
-        <v>3456734</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D147" s="5">
-        <v>10</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" t="s">
-        <v>309</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K147">
-        <v>123456789</v>
-      </c>
-      <c r="L147" t="s">
-        <v>459</v>
+        <v>11</v>
+      </c>
+      <c r="K146" t="s">
+        <v>436</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3:J147" r:id="rId2" display="example@gmail.com"/>
+    <hyperlink ref="J3:J146" r:id="rId2" display="example@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
